--- a/biology/Botanique/Primevère/Primevère.xlsx
+++ b/biology/Botanique/Primevère/Primevère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re</t>
+          <t>Primevère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primula
 Primula est un genre de plantes à fleurs de la famille des Primulacées, nommées vernaculairement les Primevères en France. 
-Ce genre, auquel sont désormais rattachés Cortusa, Dionysia et Dodecatheon, comprend 433 espèces réunies en 6 sous-genres et 37 sections, originaires pour l'essentiel d'entre-elles des zones tempérées de l'hémisphère Nord[2].
+Ce genre, auquel sont désormais rattachés Cortusa, Dionysia et Dodecatheon, comprend 433 espèces réunies en 6 sous-genres et 37 sections, originaires pour l'essentiel d'entre-elles des zones tempérées de l'hémisphère Nord.
 Ce sont des plantes herbacées.
 Les primevères sauvages, Primula elatior et Primula veris, dont les fleurs retombantes se présentent en ombelle au sommet d'une longue tige, sont également connues sous le nom de coucous.
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re</t>
+          <t>Primevère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique primulus est un diminutif du latin primus, « premier », allusion au fait que ces fleurs sont parmi les toutes premières à apparaître au printemps. Le nom vernaculaire a une morphologie proche : primevère dérive d'une forme latine tardive prima vera, formée de prima,  « premier » (au féminin), et de vera, « printemps » (en latin classique, ver, veris)[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique primulus est un diminutif du latin primus, « premier », allusion au fait que ces fleurs sont parmi les toutes premières à apparaître au printemps. Le nom vernaculaire a une morphologie proche : primevère dérive d'une forme latine tardive prima vera, formée de prima,  « premier » (au féminin), et de vera, « printemps » (en latin classique, ver, veris),.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re</t>
+          <t>Primevère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Principales espèces de la flore européenne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Primula allionii - Primevère d'Allioni
 Primula apennina
@@ -599,7 +615,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Primev%C3%A8re</t>
+          <t>Primevère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -617,10 +633,12 @@
           <t>Primevères de jardins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La primevère commune des jardins est une des premières fleurs du printemps (primo vere signifie au début du printemps en latin). C'est une plante vivace, souvent cultivée en annuelle. Elle fleurit de février à mai, est rustique et possède un feuillage semi-persistant[5].
-Les hybrides de toutes les couleurs largement cultivés sont principalement des hybrides de P. vulgaris, P. veris, P. elatior, P. juliae. Ces hybrides sont parfois appelés indistinctement « Primevère Polyanthus » ou « Primula polyantha » mais ce nom ne désigne spécifiquement que les hybrides P. veris - P. vulgaris[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La primevère commune des jardins est une des premières fleurs du printemps (primo vere signifie au début du printemps en latin). C'est une plante vivace, souvent cultivée en annuelle. Elle fleurit de février à mai, est rustique et possède un feuillage semi-persistant.
+Les hybrides de toutes les couleurs largement cultivés sont principalement des hybrides de P. vulgaris, P. veris, P. elatior, P. juliae. Ces hybrides sont parfois appelés indistinctement « Primevère Polyanthus » ou « Primula polyantha » mais ce nom ne désigne spécifiquement que les hybrides P. veris - P. vulgaris.
 De nombreuses variétés hybrides sont cultivées depuis des siècles comme plantes ornementales.[réf. nécessaire]
 </t>
         </is>
